--- a/administration/Sammanställning april 2021.xlsx
+++ b/administration/Sammanställning april 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xsunde/Dropbox/Jupyter/stathelp/administration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FADE2D-E8F8-1845-B1AB-D7B05098F727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB552397-30B3-F642-8027-FAD921A33F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="940" windowWidth="16460" windowHeight="15400" xr2:uid="{558F00F3-C016-DA44-9344-CE8B64536B3C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>https://www.stathelp.se/sv/intro_sv.html</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>En hits april</t>
+  </si>
+  <si>
+    <t>https://www.stathelp.se/sv/regression_interaction2_en.html</t>
   </si>
 </sst>
 </file>
@@ -317,1128 +320,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$B$2:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$C$2:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2968</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F52-8D4C-9E31-38FDC559F35E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="614815439"/>
-        <c:axId val="614637759"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="614815439"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614637759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="614637759"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614815439"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2794000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE9728C-C0A4-7D4C-A5D3-E55C60812AAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,7 +622,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2160,6 +1041,9 @@
       <c r="B33">
         <v>12</v>
       </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2307,6 +1191,5 @@
     <sortCondition ref="D2:D33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/administration/Sammanställning april 2021.xlsx
+++ b/administration/Sammanställning april 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xsunde/Dropbox/Jupyter/stathelp/administration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB552397-30B3-F642-8027-FAD921A33F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB1A06-2F72-F34F-B94C-17FC2007E4E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="940" windowWidth="16460" windowHeight="15400" xr2:uid="{558F00F3-C016-DA44-9344-CE8B64536B3C}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>https://www.stathelp.se/sv/histogram_sv.html</t>
   </si>
   <si>
-    <t>https://www.stathelp.se/sv/ifstatements_sv.html</t>
-  </si>
-  <si>
     <t>https://www.stathelp.se/sv/linecharts_sv.html</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>https://www.stathelp.se/sv/regression_interaction2_en.html</t>
+  </si>
+  <si>
+    <t>(ifstatements_sv.html)</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C3E5DE-A269-4247-953D-AAEB8ADEAD60}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,69 +633,69 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="C4">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -717,140 +717,158 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>2968</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,82 +882,91 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,130 +974,124 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>38</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>2968</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>84</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1078,117 +1099,96 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>317</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>279</v>
-      </c>
-      <c r="D40" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>35</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>739</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>123</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45">
-        <v>79</v>
-      </c>
-      <c r="C45">
-        <v>194</v>
-      </c>
-      <c r="D45" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D33">
-    <sortCondition ref="D2:D33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">
+    <sortCondition descending="1" ref="B2:B45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
